--- a/medicine/Mort/Décès_en_1934/Décès_en_1934.xlsx
+++ b/medicine/Mort/Décès_en_1934/Décès_en_1934.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1934</t>
+          <t>Décès_en_1934</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1934</t>
+          <t>Décès_en_1934</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,8 +540,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Tullio Allegra, peintre italien (° 1862).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Tullio Allegra, peintre italien (° 1862).
 Alexandre Altmann, peintre russo-français de l'École de Paris (° 1885).
 Henri Aurrens, peintre, illustrateur et caricaturiste français (° 1873).
 Abel-Dominique Boyé, peintre français (° 6 mai 1864).
@@ -543,9 +560,43 @@
 Tommaso Francesco Testa, peintre italien (° 1867).
 Eduardo Torres, organiste, maître de chapelle, chef de chœur, compositeur et critique musical espagnol (° 1872).
 Après 1934 :
-Raoul Boudier, peintre et illustrateur français (° 14 mars 1858).
-Janvier
-3 janvier : José Tragó, compositeur et pédagogue espagnol (° 25 septembre 1857).
+Raoul Boudier, peintre et illustrateur français (° 14 mars 1858).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1934</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1934</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>3 janvier : José Tragó, compositeur et pédagogue espagnol (° 25 septembre 1857).
 6 janvier : Emmanuel Gondouin, peintre cubiste français (° 29 janvier 1883).
 9 janvier : Pierre Georges Jeanniot, peintre, illustrateur et graveur français (° 2 juillet 1848).
 10 janvier :
@@ -554,17 +605,85 @@
 12 janvier : Alice Desca, lithographe, graveuse et peintre française (° 23 février 1868),
 18 janvier : Otakar Ševčík, violoniste et compositeur austro-hongrois puis tchécoslovaque (° 22 mars 1852),
 19 janvier : Armand Parent, violoniste et compositeur belge (° 5 février 1863).
-28 janvier : Armand Rassenfosse, peintre et lithographe belge (° 6 août 1862).
-Février
-9 février : Henri Van Dyck, peintre belge (°25 mars 1849).
+28 janvier : Armand Rassenfosse, peintre et lithographe belge (° 6 août 1862).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1934</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1934</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>9 février : Henri Van Dyck, peintre belge (°25 mars 1849).
 16 février : Roberto Ferruzzi, peintre italien (°16 décembre 1853).
 17 février : Albert Ier de Belgique, troisième roi des Belges (° 8 avril 1875).
 19 février : Emmanuel Aladjalov, peintre russe puis soviétique (° 8 juin 1862).
 23 février : Edward Elgar, musicien anglais (° 2 juin 1857).
 24 février : Gavril Zanetov, avocat, historien, publiciste et critique littéraire bulgare (° 1863).
-27 février : Berthe Art, peintre belge (° 26 décembre 1857).
-Mars
-3 mars : Norman O'Neill, compositeur et chef d'orchestre irlandais (° 14 mars 1875).
+27 février : Berthe Art, peintre belge (° 26 décembre 1857).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1934</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1934</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3 mars : Norman O'Neill, compositeur et chef d'orchestre irlandais (° 14 mars 1875).
 5 mars : Jules Wengel, peintre d'origine allemande naturalisé français (° 30 mai 1865).
 9 mars : Louis Hista, peintre français (° 5 janvier 1851).
 12 mars : Marie Tonoir, peintre française (° 25 août 1860).
@@ -572,18 +691,86 @@
 21 mars : Nicanor Abelardo, compositeur philippin (° 7 février 1893).
 26 mars : Joseph Coront, peintre français (° 19 avril 1859).
 28 mars : Joseph-Émile Millochau, peintre français (° 18 novembre 1856).
-31 mars : Riccardo Pellegrini, peintre italien (° 1863).
-Avril
-7 avril : Karl von Einem, officier supérieur allemand (° 1er janvier 1853).
+31 mars : Riccardo Pellegrini, peintre italien (° 1863).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1934</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1934</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>7 avril : Karl von Einem, officier supérieur allemand (° 1er janvier 1853).
 10 avril : Theodore Douglas Robinson, homme politique américain (° 28 mars 1883).
 11 avril : Gerald du Maurier, acteur de théâtre et scénariste britannique (° 26 mars 1873).
 17 avril :
 Frank S. Cahill, homme politique fédéral provenant du Québec (° 27 janvier 1876).
 Antons Austriņš, écrivain et poète letton (° 31 janvier 1884).
 21 avril : Gustave Bord, historien de la Révolution et essayiste français (° 26 janvier 1852).
-24 avril : Léopold Gottlieb, peintre polonais (° 1883).
-Mai
-7 mai : Manuel Solé, footballeur espagnol et cofondateur du FC Barcelone (° 26 décembre 1872).
+24 avril : Léopold Gottlieb, peintre polonais (° 1883).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1934</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1934</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>7 mai : Manuel Solé, footballeur espagnol et cofondateur du FC Barcelone (° 26 décembre 1872).
 10 mai :
 Hubert Krains, écrivain belge et militant wallon (° 30 novembre 1862).
 Viatcheslav Menjinski, homme politique russe puis soviétique d'origine polonaise (° 31 août 1874).
@@ -599,17 +786,85 @@
 24 mai : Charles Léandre, illustrateur, lithographe, caricaturiste, dessinateur, sculpteur et peintre français (° 22 juillet 1862).
 25 mai : Gustav Holst, compositeur et tromboniste britannique (° 21 septembre 1874).
 26 mai : Maurice Lefebvre-Lourdet, peintre, dessinateur, illustrateur et affichiste français (° 8 avril 1860).
-29 mai : Augusto Pestana, ingénieur et homme politique brésilien (° 22 mai 1868).
-Juin
-2 juin : Jean-Baptiste Bassoul, peintre français (° 15 mars 1875).
+29 mai : Augusto Pestana, ingénieur et homme politique brésilien (° 22 mai 1868).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1934</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1934</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2 juin : Jean-Baptiste Bassoul, peintre français (° 15 mars 1875).
 7 juin : Juan Uriach, footballeur espagnol (° 4 mars 1896).
 11 juin : Ester Almqvist, peintre suédoise (° 3 novembre 1869).
 13 juin :  Joni Mataitini, chef autochtone fidjien (° 13 avril 1865).
 14 juin : Jacob Balgley, peintre et graveur russe (° 7 mars 1891).
 15 juin : Alfred Bruneau, compositeur et chef d'orchestre français (° 3 mars 1857).
-26 juin : Nathaniel Lord Britton, botaniste américain (° 15 janvier 1859).
-Juillet
-1er juillet : Jules Monge, peintre français (° 26 décembre 1855).
+26 juin : Nathaniel Lord Britton, botaniste américain (° 15 janvier 1859).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1934</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1934</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1er juillet : Jules Monge, peintre français (° 26 décembre 1855).
 4 juillet : Marie Skłodowska-Curie, physicienne et chimiste polonaise naturalisée française (° 7 novembre 1867).
 6 juillet : Alec B. Francis,  acteur du cinéma muet britannique (° 2 décembre 1867).
 9 juillet : Otakar Zich, compositeur et esthéticien tchèque (° 25 mars 1879).
@@ -624,22 +879,124 @@
 29 juillet :
 Pierre Comba, peintre français (° 1er septembre 1859).
 Kume Keiichirō, peintre japonais (° 11 septembre 1866).
-31 juillet : Émile Schuffenecker, peintre postimpressionniste français (° 8 décembre 1851).
-Août
-2 août : Paul von Hindenburg, militaire et homme politique allemand, maréchal, président de l'Allemagne de 1925 à 1934 (° 2 octobre 1847).
+31 juillet : Émile Schuffenecker, peintre postimpressionniste français (° 8 décembre 1851).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1934</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1934</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2 août : Paul von Hindenburg, militaire et homme politique allemand, maréchal, président de l'Allemagne de 1925 à 1934 (° 2 octobre 1847).
 4 août : Trybalski, peintre roumain (° 2 janvier 1863).
 11 août : Kalitha Dorothy Fox, compositrice anglaise (° 1894).
 13 août : Ignacio Sánchez Mejías, matador espagnol (° 6 juin 1891).
 17 août : Alexandre Borissov, peintre, écrivain et explorateur des régions polaires russe puis soviétique (° 14 novembre 1866).
-23 août : Léon Boudal, homme d'église et peintre français (° 23 janvier 1858).
-Septembre
-2 septembre : Georges Charlet, graveur au burin, peintre et céramiste animalier français (° 24 mars 1860).
+23 août : Léon Boudal, homme d'église et peintre français (° 23 janvier 1858).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1934</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1934</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2 septembre : Georges Charlet, graveur au burin, peintre et céramiste animalier français (° 24 mars 1860).
 5 septembre : Sidney Myer, homme d'affaires australien (° 8 février 1878).
 9 septembre : Juozas Naujalis, compositeur, organiste et chef de chœur lituanien (° 9 avril 1869).
 11 septembre : François Barraud, peintre, dessinateur graveur et sculpteur suisse (° 14 novembre 1899).
-27 septembre : Paul Albert Laurens, peintre français (° 18 janvier 1870).
-Octobre
-3 octobre : Henri Marteau, violoniste virtuose et compositeur d'origine française naturalisé suédois (° 31 mars 1874).
+27 septembre : Paul Albert Laurens, peintre français (° 18 janvier 1870).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1934</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1934</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>3 octobre : Henri Marteau, violoniste virtuose et compositeur d'origine française naturalisé suédois (° 31 mars 1874).
 5 octobre : Jean Vigo, réalisateur français (° 26 avril 1905).
 6 octobre :
 Ferdinand Humbert, peintre français (° 8 octobre 1842).
@@ -656,9 +1013,43 @@
 23 octobre : César Simar, coureur cycliste français (° 29 mai 1879).
 26 octobre : Frantz Seimetz, peintre et écrivain luxembourgeois (° 21 avril 1858).
 30 octobre : Louis Lewandowski, peintre polonais (° 25 juillet 1879).
-31 octobre : Ipolit Strâmbu, peintre roumain (° 18 mai 1871).
-Novembre
-8 novembre : Nils Forsberg, peintre suédois (° 17 décembre 1842).
+31 octobre : Ipolit Strâmbu, peintre roumain (° 18 mai 1871).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1934</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1934</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>8 novembre : Nils Forsberg, peintre suédois (° 17 décembre 1842).
 10 novembre : Henri Veyssade, footballeur français (° 24 janvier 1908).
 12 novembre : Luis Freg, matador mexicain (° 21 juin 1890).
 17 novembre : Gabriel Van Dievoet, peintre, décorateur et sgraffitiste belge (° 12 avril 1875).
@@ -668,9 +1059,43 @@
 30 novembre :
 Hélène Boucher, aviatrice française (° 23 mai 1908).
 Alex Bell, footballeur écossais (° 1882).
-Robert Perks, homme politique britannique (° 24 avril 1849).
-Décembre
-4 décembre : Albert Besnard, peintre et graveur français (° 2 juin 1849).
+Robert Perks, homme politique britannique (° 24 avril 1849).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1934</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1934</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>4 décembre : Albert Besnard, peintre et graveur français (° 2 juin 1849).
 8 décembre : Robert Brower, acteur américain (° 14 juillet 1850).
 9 décembre :
 Hugo Boettinger, peintre austro-hongrois puis tchécoslovaque (° 30 avril 1880).
